--- a/LoatResult.xlsx
+++ b/LoatResult.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
   <si>
     <t>URL</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>4.0s</t>
+  </si>
+  <si>
+    <t>22/Jan/2019 18:17:52</t>
+  </si>
+  <si>
+    <t>6.0s</t>
+  </si>
+  <si>
+    <t>22/Jan/2019 18:18:50</t>
+  </si>
+  <si>
+    <t>9.3s</t>
+  </si>
+  <si>
+    <t>22/Jan/2019 18:23:02</t>
+  </si>
+  <si>
+    <t>22/Jan/2019 18:23:47</t>
+  </si>
+  <si>
+    <t>4.9s</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:L3"/>
@@ -1044,6 +1065,12 @@
       <c r="C1" t="s">
         <v>14</v>
       </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
@@ -1054,6 +1081,12 @@
       </c>
       <c r="C2" t="s">
         <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1063,6 +1096,12 @@
       </c>
       <c r="C3" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:1">
